--- a/biology/Zoologie/Acanthodactylus_longipes/Acanthodactylus_longipes.xlsx
+++ b/biology/Zoologie/Acanthodactylus_longipes/Acanthodactylus_longipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthodactylus longipes est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthodactylus longipes est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Maroc, en Mauritanie, au Mali, au Niger, en Algérie, en Tunisie, en Libye, au Tchad et en Égypte[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Maroc, en Mauritanie, au Mali, au Niger, en Algérie, en Tunisie, en Libye, au Tchad et en Égypte.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit lézard terrestre vivant dans des milieux désertiques.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Acanthodactylus longipes panousei décrite par Bons &amp; Girot en 1964[2] n'est plus considérée comme sous-espèce distincte, les éléments la caractérisant ne dépassant pas la variabilité naturelle de l'espèce[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Acanthodactylus longipes panousei décrite par Bons &amp; Girot en 1964 n'est plus considérée comme sous-espèce distincte, les éléments la caractérisant ne dépassant pas la variabilité naturelle de l'espèce,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1918 : Sur les lézards du genre Acanthodactylus Wieg. Bulletin de la Societe Zoologique de France, vol. 43, p. 143-155 (texte intégral).</t>
         </is>
